--- a/data/inflation.xlsx
+++ b/data/inflation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ками-сама\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\user\src\ds-start-final\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A2993F4-087B-4E3F-8F87-C7914717078B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3403E5CD-20AF-48D9-BD58-07BEE968CC75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{B6FC8062-BA91-4FCA-AD16-9DF87DDABBE5}"/>
+    <workbookView xWindow="-15468" yWindow="-108" windowWidth="15576" windowHeight="11904" xr2:uid="{B6FC8062-BA91-4FCA-AD16-9DF87DDABBE5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,7 +107,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -123,9 +123,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,7 +163,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -269,7 +269,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -419,15 +419,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64B67AC4-CCDA-468E-B71D-427F61B210D1}">
-  <dimension ref="A1:N26"/>
+  <dimension ref="A1:N35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:N34"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -471,1104 +471,1437 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
+        <v>2024</v>
+      </c>
+      <c r="B2">
+        <v>7.44</v>
+      </c>
+      <c r="C2">
+        <v>7.67</v>
+      </c>
+      <c r="N2">
+        <v>1.55</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2023</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>11.76</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>10.97</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>3.51</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>2.2999999999999998</v>
       </c>
-      <c r="F2">
+      <c r="F3">
         <v>2.5</v>
       </c>
-      <c r="G2">
+      <c r="G3">
         <v>3.24</v>
       </c>
-      <c r="H2">
+      <c r="H3">
         <v>4.3</v>
       </c>
-      <c r="I2">
+      <c r="I3">
         <v>5.13</v>
       </c>
-      <c r="J2">
+      <c r="J3">
         <v>6</v>
       </c>
-      <c r="K2">
+      <c r="K3">
         <v>6.68</v>
       </c>
-      <c r="L2">
+      <c r="L3">
         <v>7.47</v>
       </c>
-      <c r="M2">
+      <c r="M3">
         <v>7.42</v>
       </c>
-      <c r="N2">
+      <c r="N3">
         <v>7.42</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>2022</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>8.74</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>9.16</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>16.7</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>17.829999999999998</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>17.11</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>15.9</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>15.09</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>14.3</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>13.67</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>12.63</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>11.97</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>11.92</v>
       </c>
-      <c r="N3">
+      <c r="N4">
         <v>11.92</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>2021</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>5.19</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>5.67</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>5.78</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>5.52</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>6.01</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>6.51</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>6.47</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>6.69</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>7.41</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>8.14</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>8.4</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <v>8.39</v>
       </c>
-      <c r="N4">
+      <c r="N5">
         <v>8.39</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6">
         <v>2020</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>2.42</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>2.31</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>2.5499999999999998</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>3.1</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>3.03</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>3.21</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>3.37</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>3.57</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>3.67</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>3.98</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>4.42</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>4.91</v>
       </c>
-      <c r="N5">
+      <c r="N6">
         <v>4.91</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7">
         <v>2019</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>5</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>5.24</v>
       </c>
-      <c r="D6">
+      <c r="D7">
         <v>5.27</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>5.17</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>5.13</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>4.66</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>4.59</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>4.33</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>3.99</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>3.77</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>3.54</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>3.05</v>
       </c>
-      <c r="N6">
+      <c r="N7">
         <v>3.05</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8">
         <v>2018</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>2.21</v>
       </c>
-      <c r="C7">
+      <c r="C8">
         <v>2.2000000000000002</v>
       </c>
-      <c r="D7">
+      <c r="D8">
         <v>2.36</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>2.41</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>2.42</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>2.2999999999999998</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>2.5</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>3.07</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>3.39</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>3.55</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>3.83</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>4.2699999999999996</v>
       </c>
-      <c r="N7">
+      <c r="N8">
         <v>4.2699999999999996</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9">
         <v>2017</v>
       </c>
-      <c r="B8">
+      <c r="B9">
         <v>5.0199999999999996</v>
       </c>
-      <c r="C8">
+      <c r="C9">
         <v>4.59</v>
       </c>
-      <c r="D8">
+      <c r="D9">
         <v>4.25</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>4.13</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>4.09</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>4.3499999999999996</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>3.86</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>3.29</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>2.96</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>2.73</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>2.5</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>2.52</v>
       </c>
-      <c r="N8">
+      <c r="N9">
         <v>2.52</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10">
         <v>2016</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>9.77</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>8.06</v>
       </c>
-      <c r="D9">
+      <c r="D10">
         <v>7.26</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>7.24</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>7.3</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>7.48</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>7.21</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>6.84</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>6.42</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>6.09</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>5.76</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>5.38</v>
       </c>
-      <c r="N9">
+      <c r="N10">
         <v>5.38</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11">
         <v>2015</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>14.97</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>16.71</v>
       </c>
-      <c r="D10">
+      <c r="D11">
         <v>16.93</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>16.420000000000002</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>15.78</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>15.29</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>15.64</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>15.77</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>15.68</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>15.59</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>14.98</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>12.91</v>
       </c>
-      <c r="N10">
+      <c r="N11">
         <v>12.91</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12">
         <v>2014</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>6.05</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>6.2</v>
       </c>
-      <c r="D11">
+      <c r="D12">
         <v>6.92</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>7.33</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>7.59</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>7.8</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>7.45</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>7.56</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>8.0299999999999994</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>8.3000000000000007</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>9.07</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>11.36</v>
       </c>
-      <c r="N11">
+      <c r="N12">
         <v>11.36</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13">
         <v>2013</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>7.07</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>7.28</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>7.02</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>7.23</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>7.38</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>6.88</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>6.45</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>6.49</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>6.13</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>6.25</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>6.48</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>6.45</v>
       </c>
-      <c r="N12">
+      <c r="N13">
         <v>6.45</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14">
         <v>2012</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>4.16</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>3.74</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>3.7</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>3.57</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>3.61</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>4.3</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>5.59</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>5.95</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>6.58</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>6.55</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>6.47</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <v>6.58</v>
       </c>
-      <c r="N13">
+      <c r="N14">
         <v>6.58</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15">
         <v>2011</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>9.56</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>9.4700000000000006</v>
       </c>
-      <c r="D14">
+      <c r="D15">
         <v>9.4600000000000009</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>9.61</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>9.59</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>9.42</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>9.01</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>8.16</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>7.21</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>7.19</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>6.78</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <v>6.1</v>
       </c>
-      <c r="N14">
+      <c r="N15">
         <v>6.1</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16">
         <v>2010</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>8.02</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>7.18</v>
       </c>
-      <c r="D15">
+      <c r="D16">
         <v>6.46</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>6.04</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>5.97</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>5.74</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>5.46</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>6.04</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>6.96</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>7.5</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>8.06</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>8.7799999999999994</v>
       </c>
-      <c r="N15">
+      <c r="N16">
         <v>8.7799999999999994</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A17">
         <v>2009</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>13.35</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>13.85</v>
       </c>
-      <c r="D16">
+      <c r="D17">
         <v>13.98</v>
       </c>
-      <c r="E16">
+      <c r="E17">
         <v>13.16</v>
       </c>
-      <c r="F16">
+      <c r="F17">
         <v>12.28</v>
       </c>
-      <c r="G16">
+      <c r="G17">
         <v>11.87</v>
       </c>
-      <c r="H16">
+      <c r="H17">
         <v>12.01</v>
       </c>
-      <c r="I16">
+      <c r="I17">
         <v>11.6</v>
       </c>
-      <c r="J16">
+      <c r="J17">
         <v>10.69</v>
       </c>
-      <c r="K16">
+      <c r="K17">
         <v>9.69</v>
       </c>
-      <c r="L16">
+      <c r="L17">
         <v>9.1</v>
       </c>
-      <c r="M16">
+      <c r="M17">
         <v>8.8000000000000007</v>
       </c>
-      <c r="N16">
+      <c r="N17">
         <v>8.8000000000000007</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A18">
         <v>2008</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>12.56</v>
       </c>
-      <c r="C17">
+      <c r="C18">
         <v>12.66</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>13.35</v>
       </c>
-      <c r="E17">
+      <c r="E18">
         <v>14.3</v>
       </c>
-      <c r="F17">
+      <c r="F18">
         <v>15.12</v>
       </c>
-      <c r="G17">
+      <c r="G18">
         <v>15.14</v>
       </c>
-      <c r="H17">
+      <c r="H18">
         <v>14.73</v>
       </c>
-      <c r="I17">
+      <c r="I18">
         <v>15.04</v>
       </c>
-      <c r="J17">
+      <c r="J18">
         <v>15.05</v>
       </c>
-      <c r="K17">
+      <c r="K18">
         <v>14.23</v>
       </c>
-      <c r="L17">
+      <c r="L18">
         <v>13.78</v>
       </c>
-      <c r="M17">
+      <c r="M18">
         <v>13.28</v>
       </c>
-      <c r="N17">
+      <c r="N18">
         <v>13.28</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A19">
         <v>2007</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>8.1999999999999993</v>
       </c>
-      <c r="C18">
+      <c r="C19">
         <v>7.61</v>
       </c>
-      <c r="D18">
+      <c r="D19">
         <v>7.37</v>
       </c>
-      <c r="E18">
+      <c r="E19">
         <v>7.6</v>
       </c>
-      <c r="F18">
+      <c r="F19">
         <v>7.76</v>
       </c>
-      <c r="G18">
+      <c r="G19">
         <v>8.48</v>
       </c>
-      <c r="H18">
+      <c r="H19">
         <v>8.6999999999999993</v>
       </c>
-      <c r="I18">
+      <c r="I19">
         <v>8.59</v>
       </c>
-      <c r="J18">
+      <c r="J19">
         <v>9.35</v>
       </c>
-      <c r="K18">
+      <c r="K19">
         <v>10.83</v>
       </c>
-      <c r="L18">
+      <c r="L19">
         <v>11.49</v>
       </c>
-      <c r="M18">
+      <c r="M19">
         <v>11.87</v>
       </c>
-      <c r="N18">
+      <c r="N19">
         <v>11.87</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A20">
         <v>2006</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>10.71</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>11.18</v>
       </c>
-      <c r="D19">
+      <c r="D20">
         <v>10.61</v>
       </c>
-      <c r="E19">
+      <c r="E20">
         <v>9.77</v>
       </c>
-      <c r="F19">
+      <c r="F20">
         <v>9.42</v>
       </c>
-      <c r="G19">
+      <c r="G20">
         <v>9.0299999999999994</v>
       </c>
-      <c r="H19">
+      <c r="H20">
         <v>9.26</v>
       </c>
-      <c r="I19">
+      <c r="I20">
         <v>9.6199999999999992</v>
       </c>
-      <c r="J19">
+      <c r="J20">
         <v>9.44</v>
       </c>
-      <c r="K19">
+      <c r="K20">
         <v>9.15</v>
       </c>
-      <c r="L19">
+      <c r="L20">
         <v>9.0299999999999994</v>
       </c>
-      <c r="M19">
+      <c r="M20">
         <v>9</v>
       </c>
-      <c r="N19">
+      <c r="N20">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A21">
         <v>2005</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>12.7</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>12.96</v>
       </c>
-      <c r="D20">
+      <c r="D21">
         <v>13.63</v>
       </c>
-      <c r="E20">
+      <c r="E21">
         <v>13.77</v>
       </c>
-      <c r="F20">
+      <c r="F21">
         <v>13.84</v>
       </c>
-      <c r="G20">
+      <c r="G21">
         <v>13.68</v>
       </c>
-      <c r="H20">
+      <c r="H21">
         <v>13.16</v>
       </c>
-      <c r="I20">
+      <c r="I21">
         <v>12.53</v>
       </c>
-      <c r="J20">
+      <c r="J21">
         <v>12.33</v>
       </c>
-      <c r="K20">
+      <c r="K21">
         <v>11.68</v>
       </c>
-      <c r="L20">
+      <c r="L21">
         <v>11.27</v>
       </c>
-      <c r="M20">
+      <c r="M21">
         <v>10.91</v>
       </c>
-      <c r="N20">
+      <c r="N21">
         <v>10.91</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A22">
         <v>2004</v>
       </c>
-      <c r="B21">
+      <c r="B22">
         <v>11.28</v>
       </c>
-      <c r="C21">
+      <c r="C22">
         <v>10.58</v>
       </c>
-      <c r="D21">
+      <c r="D22">
         <v>10.25</v>
       </c>
-      <c r="E21">
+      <c r="E22">
         <v>10.220000000000001</v>
       </c>
-      <c r="F21">
+      <c r="F22">
         <v>10.15</v>
       </c>
-      <c r="G21">
+      <c r="G22">
         <v>10.130000000000001</v>
       </c>
-      <c r="H21">
+      <c r="H22">
         <v>10.36</v>
       </c>
-      <c r="I21">
+      <c r="I22">
         <v>11.28</v>
       </c>
-      <c r="J21">
+      <c r="J22">
         <v>11.38</v>
       </c>
-      <c r="K21">
+      <c r="K22">
         <v>11.53</v>
       </c>
-      <c r="L21">
+      <c r="L22">
         <v>11.7</v>
       </c>
-      <c r="M21">
+      <c r="M22">
         <v>11.74</v>
       </c>
-      <c r="N21">
+      <c r="N22">
         <v>11.74</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A23">
         <v>2003</v>
       </c>
-      <c r="B22">
+      <c r="B23">
         <v>14.29</v>
       </c>
-      <c r="C22">
+      <c r="C23">
         <v>14.82</v>
       </c>
-      <c r="D22">
+      <c r="D23">
         <v>14.78</v>
       </c>
-      <c r="E22">
+      <c r="E23">
         <v>14.62</v>
       </c>
-      <c r="F22">
+      <c r="F23">
         <v>13.62</v>
       </c>
-      <c r="G22">
+      <c r="G23">
         <v>13.93</v>
       </c>
-      <c r="H22">
+      <c r="H23">
         <v>13.91</v>
       </c>
-      <c r="I22">
+      <c r="I23">
         <v>13.35</v>
       </c>
-      <c r="J22">
+      <c r="J23">
         <v>13.28</v>
       </c>
-      <c r="K22">
+      <c r="K23">
         <v>13.2</v>
       </c>
-      <c r="L22">
+      <c r="L23">
         <v>12.48</v>
       </c>
-      <c r="M22">
+      <c r="M23">
         <v>11.99</v>
       </c>
-      <c r="N22">
+      <c r="N23">
         <v>11.99</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A24">
         <v>2002</v>
       </c>
-      <c r="B23">
+      <c r="B24">
         <v>18.96</v>
       </c>
-      <c r="C23">
+      <c r="C24">
         <v>17.66</v>
       </c>
-      <c r="D23">
+      <c r="D24">
         <v>16.760000000000002</v>
       </c>
-      <c r="E23">
+      <c r="E24">
         <v>16.04</v>
       </c>
-      <c r="F23">
+      <c r="F24">
         <v>15.94</v>
       </c>
-      <c r="G23">
+      <c r="G24">
         <v>14.69</v>
       </c>
-      <c r="H23">
+      <c r="H24">
         <v>15</v>
       </c>
-      <c r="I23">
+      <c r="I24">
         <v>15.09</v>
       </c>
-      <c r="J23">
+      <c r="J24">
         <v>14.86</v>
       </c>
-      <c r="K23">
+      <c r="K24">
         <v>14.84</v>
       </c>
-      <c r="L23">
+      <c r="L24">
         <v>15.12</v>
       </c>
-      <c r="M23">
+      <c r="M24">
         <v>15.06</v>
       </c>
-      <c r="N23">
+      <c r="N24">
         <v>15.06</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A25">
         <v>2001</v>
       </c>
-      <c r="B24">
+      <c r="B25">
         <v>20.71</v>
       </c>
-      <c r="C24">
+      <c r="C25">
         <v>22.19</v>
       </c>
-      <c r="D24">
+      <c r="D25">
         <v>23.67</v>
       </c>
-      <c r="E24">
+      <c r="E25">
         <v>24.77</v>
       </c>
-      <c r="F24">
+      <c r="F25">
         <v>24.81</v>
       </c>
-      <c r="G24">
+      <c r="G25">
         <v>23.68</v>
       </c>
-      <c r="H24">
+      <c r="H25">
         <v>22.05</v>
       </c>
-      <c r="I24">
+      <c r="I25">
         <v>20.88</v>
       </c>
-      <c r="J24">
+      <c r="J25">
         <v>20.02</v>
       </c>
-      <c r="K24">
+      <c r="K25">
         <v>18.82</v>
       </c>
-      <c r="L24">
+      <c r="L25">
         <v>18.63</v>
       </c>
-      <c r="M24">
+      <c r="M25">
         <v>18.579999999999998</v>
       </c>
-      <c r="N24">
+      <c r="N25">
         <v>18.579999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A26">
         <v>2000</v>
       </c>
-      <c r="B25">
+      <c r="B26">
         <v>28.93</v>
       </c>
-      <c r="C25">
+      <c r="C26">
         <v>25.11</v>
       </c>
-      <c r="D25">
+      <c r="D26">
         <v>22.49</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>19.95</v>
       </c>
-      <c r="F25">
+      <c r="F26">
         <v>19.399999999999999</v>
       </c>
-      <c r="G25">
+      <c r="G26">
         <v>20.149999999999999</v>
       </c>
-      <c r="H25">
+      <c r="H26">
         <v>18.940000000000001</v>
       </c>
-      <c r="I25">
+      <c r="I26">
         <v>18.73</v>
       </c>
-      <c r="J25">
+      <c r="J26">
         <v>18.54</v>
       </c>
-      <c r="K25">
+      <c r="K26">
         <v>19.41</v>
       </c>
-      <c r="L25">
+      <c r="L26">
         <v>19.75</v>
       </c>
-      <c r="M25">
+      <c r="M26">
         <v>20.2</v>
       </c>
-      <c r="N25">
+      <c r="N26">
         <v>20.2</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A27">
         <v>1999</v>
       </c>
-      <c r="B26">
+      <c r="B27">
         <v>96.92</v>
       </c>
-      <c r="C26">
+      <c r="C27">
         <v>103.24</v>
       </c>
-      <c r="D26">
+      <c r="D27">
         <v>107.58</v>
       </c>
-      <c r="E26">
+      <c r="E27">
         <v>113.06</v>
       </c>
-      <c r="F26">
+      <c r="F27">
         <v>116.71</v>
       </c>
-      <c r="G26">
+      <c r="G27">
         <v>120.67</v>
       </c>
-      <c r="H26">
+      <c r="H27">
         <v>126.51</v>
       </c>
-      <c r="I26">
+      <c r="I27">
         <v>121.03</v>
       </c>
-      <c r="J26">
+      <c r="J27">
         <v>62.03</v>
       </c>
-      <c r="K26">
+      <c r="K27">
         <v>57.12</v>
       </c>
-      <c r="L26">
+      <c r="L27">
         <v>50.52</v>
       </c>
-      <c r="M26">
+      <c r="M27">
         <v>36.56</v>
       </c>
-      <c r="N26">
+      <c r="N27">
         <v>36.56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>1998</v>
+      </c>
+      <c r="B28">
+        <v>10.130000000000001</v>
+      </c>
+      <c r="C28">
+        <v>9.43</v>
+      </c>
+      <c r="D28">
+        <v>8.57</v>
+      </c>
+      <c r="E28">
+        <v>7.95</v>
+      </c>
+      <c r="F28">
+        <v>7.48</v>
+      </c>
+      <c r="G28">
+        <v>6.4</v>
+      </c>
+      <c r="H28">
+        <v>5.59</v>
+      </c>
+      <c r="I28">
+        <v>9.6199999999999992</v>
+      </c>
+      <c r="J28">
+        <v>52.21</v>
+      </c>
+      <c r="K28">
+        <v>58.85</v>
+      </c>
+      <c r="L28">
+        <v>66.84</v>
+      </c>
+      <c r="M28">
+        <v>84.44</v>
+      </c>
+      <c r="N28">
+        <v>84.44</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>1997</v>
+      </c>
+      <c r="B29">
+        <v>19.739999999999998</v>
+      </c>
+      <c r="C29">
+        <v>18.28</v>
+      </c>
+      <c r="D29">
+        <v>16.71</v>
+      </c>
+      <c r="E29">
+        <v>15.34</v>
+      </c>
+      <c r="F29">
+        <v>14.59</v>
+      </c>
+      <c r="G29">
+        <v>14.51</v>
+      </c>
+      <c r="H29">
+        <v>14.75</v>
+      </c>
+      <c r="I29">
+        <v>14.83</v>
+      </c>
+      <c r="J29">
+        <v>14.11</v>
+      </c>
+      <c r="K29">
+        <v>12.95</v>
+      </c>
+      <c r="L29">
+        <v>11.54</v>
+      </c>
+      <c r="M29">
+        <v>11.03</v>
+      </c>
+      <c r="N29">
+        <v>11.03</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>1996</v>
+      </c>
+      <c r="B30">
+        <v>104.5</v>
+      </c>
+      <c r="C30">
+        <v>89.34</v>
+      </c>
+      <c r="D30">
+        <v>78.66</v>
+      </c>
+      <c r="E30">
+        <v>68.27</v>
+      </c>
+      <c r="F30">
+        <v>58.4</v>
+      </c>
+      <c r="G30">
+        <v>50.25</v>
+      </c>
+      <c r="H30">
+        <v>43.6</v>
+      </c>
+      <c r="I30">
+        <v>37.049999999999997</v>
+      </c>
+      <c r="J30">
+        <v>31.63</v>
+      </c>
+      <c r="K30">
+        <v>27.21</v>
+      </c>
+      <c r="L30">
+        <v>23.95</v>
+      </c>
+      <c r="M30">
+        <v>21.81</v>
+      </c>
+      <c r="N30">
+        <v>21.81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>1995</v>
+      </c>
+      <c r="B31">
+        <v>214.68</v>
+      </c>
+      <c r="C31">
+        <v>215.24</v>
+      </c>
+      <c r="D31">
+        <v>219.73</v>
+      </c>
+      <c r="E31">
+        <v>219.68</v>
+      </c>
+      <c r="F31">
+        <v>222.73</v>
+      </c>
+      <c r="G31">
+        <v>224.73</v>
+      </c>
+      <c r="H31">
+        <v>224.89</v>
+      </c>
+      <c r="I31">
+        <v>224.7</v>
+      </c>
+      <c r="J31">
+        <v>214.18</v>
+      </c>
+      <c r="K31">
+        <v>186.09</v>
+      </c>
+      <c r="L31">
+        <v>161</v>
+      </c>
+      <c r="M31">
+        <v>131.33000000000001</v>
+      </c>
+      <c r="N31">
+        <v>131.33000000000001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>1994</v>
+      </c>
+      <c r="B32">
+        <v>780.85</v>
+      </c>
+      <c r="C32">
+        <v>682.8</v>
+      </c>
+      <c r="D32">
+        <v>600.09</v>
+      </c>
+      <c r="E32">
+        <v>539.87</v>
+      </c>
+      <c r="F32">
+        <v>479.24</v>
+      </c>
+      <c r="G32">
+        <v>412.09</v>
+      </c>
+      <c r="H32">
+        <v>340.71</v>
+      </c>
+      <c r="I32">
+        <v>265.93</v>
+      </c>
+      <c r="J32">
+        <v>221.19</v>
+      </c>
+      <c r="K32">
+        <v>209.09</v>
+      </c>
+      <c r="L32">
+        <v>204.36</v>
+      </c>
+      <c r="M32">
+        <v>215.02</v>
+      </c>
+      <c r="N32">
+        <v>215.02</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>1993</v>
+      </c>
+      <c r="B33">
+        <v>850.46</v>
+      </c>
+      <c r="C33">
+        <v>758.85</v>
+      </c>
+      <c r="D33">
+        <v>694.06</v>
+      </c>
+      <c r="E33">
+        <v>674.49</v>
+      </c>
+      <c r="F33">
+        <v>717.4</v>
+      </c>
+      <c r="G33">
+        <v>722.89</v>
+      </c>
+      <c r="H33">
+        <v>810.61</v>
+      </c>
+      <c r="I33">
+        <v>956.51</v>
+      </c>
+      <c r="J33">
+        <v>1065.47</v>
+      </c>
+      <c r="K33">
+        <v>1033.23</v>
+      </c>
+      <c r="L33">
+        <v>945.97</v>
+      </c>
+      <c r="M33">
+        <v>839.87</v>
+      </c>
+      <c r="N33">
+        <v>839.87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>1992</v>
+      </c>
+      <c r="B34">
+        <v>746.67</v>
+      </c>
+      <c r="C34">
+        <v>1014.89</v>
+      </c>
+      <c r="D34">
+        <v>1262.4100000000001</v>
+      </c>
+      <c r="E34">
+        <v>914.1</v>
+      </c>
+      <c r="F34">
+        <v>1001.73</v>
+      </c>
+      <c r="G34">
+        <v>1196.5999999999999</v>
+      </c>
+      <c r="H34">
+        <v>1325.49</v>
+      </c>
+      <c r="I34">
+        <v>1440.38</v>
+      </c>
+      <c r="J34">
+        <v>1598.83</v>
+      </c>
+      <c r="K34">
+        <v>1917.26</v>
+      </c>
+      <c r="L34">
+        <v>2235.88</v>
+      </c>
+      <c r="M34">
+        <v>2508.85</v>
+      </c>
+      <c r="N34">
+        <v>2508.85</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>1991</v>
+      </c>
+      <c r="M35">
+        <v>160.4</v>
+      </c>
+      <c r="N35">
+        <v>160.4</v>
       </c>
     </row>
   </sheetData>
